--- a/src/test/java/com/data/sqldata.xlsx
+++ b/src/test/java/com/data/sqldata.xlsx
@@ -16,137 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>delete from  user where phone_number like '13_00000000';</t>
-  </si>
-  <si>
-    <t>delete from kyc where user_id in (select id from  user where phone_number like '13_00000000');</t>
-  </si>
-  <si>
-    <t>delete from user_mainson_item where user_id in  (select id from user where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attachment_url  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000')) and  attestation_id != '278824B0158641B080990C50EEAD67CC';</t>
-  </si>
-  <si>
-    <t>delete from attachment_url_del_copy  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attachment_url_del  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_count  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_count_day  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_del  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_gtja  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_sandbox  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attestation_user_white_list  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_article  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_article_content  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_article_result  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_attestation  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_attestation_result  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_original  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_picture  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from monitor_picture_result  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from process_evidence_del  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from user_address where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from user_invoice_list where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from user_invoice_list_trade where trade_id in (select id from user_trade where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000')));</t>
-  </si>
-  <si>
-    <t>delete from user_invoice where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from user_item_price where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from user_mainson_item_detail where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from notary where user_id in (select id from user where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from attachment_url_feedback where user_id in (select id from user where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>update user_account set balance = '100000', url_attestation_count ='0' , e_contract_count = '0' , attestation_count = '0' , process_evidence = '0' , freeze = '0' , withdraw = '0' , monitor_count = '0',send_balance = '0' ,storage_capacity = '10737418240' ,consume_balance = '0', consume_send_balance = '0' where user_id  in (select id from user where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>update process_evidence set excep_status='',excep_remark='',excep_created_at=null,excep_updated_at = null, excep_updated_name ='' ,excep_sub_status ='',excep_operation = '',excep_operation_remark='' where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-  </si>
-  <si>
-    <t>delete from organization where owner_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000'));</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from kyc_enterprise where organization_id in (select s.id from user t LEFT JOIN organization s on t.id = s.owner_id  where t.phone_number = '13500000000');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user where phone_number = '13100000001';</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from kyc where user_id = (select id from  user where phone_number = '13100000001');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_trade where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000','13100000001','13200000000','13300000000','13400000000','13600000000')) and type != 'IN';</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update user set client_model =Null and agent_create_time=null where phone_number= '15858231021';</t>
-  </si>
-  <si>
-    <t>delete user1,user2 FROM user_mainson_item user1 left join user_mainson_item_detail user2 on user1.user_id=user2.user_id and user1.id=user2.main_son_item_id where user1.id='261';</t>
-  </si>
-  <si>
-    <t>delete from user_mainson_item_detail where user_id = (select id from user where phone_number = '13691332632');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from process_evidence  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000')) and id  not in('hskPKdepH8DwWc7kudZn1S','5bCZJaMfAztycaaA35WV3T','oJSkvHVqFSzeZEyW2cvZSf','tt8DVE1KPWzrS34Yr3iQvB');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from attestation  where user_id in (select id  from  user  where phone_number in ('13333333333','13100000000','13500000000')) and id  not in ('BE88192FFD76405CA903A17FA96F7F48','64E685A073D741649624CA9652FC9CB7','E04126753707427F8665049A91F4EC82','E8B3E0B8D5D1418C9DE471812B553B33','654D1FD742954BFAA490B6FBDBFFC040','CDA51B67475D43E7AB6C0C1F7066FC5D','BC004DB2A2BB4C3489406EC87E48B829');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>UPDATE  per_user_details set points = '10000' where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from data where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from data_sub where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from  news where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from notify_push where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from obtain_address where wid = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from `order` where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from pro_order where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from process_evidence where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from user_detail where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from user_give where user_id = (select user_id from user where mobile = '17805121968');</t>
+  </si>
+  <si>
+    <t>delete from web_forensics where user_id = (select user_id from user where mobile = '17805121968');</t>
   </si>
 </sst>
 </file>
@@ -200,11 +105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -504,7 +410,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -513,199 +419,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="1:1" ht="15">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="15">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" ht="15">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="15">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="15">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="15">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" ht="15">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" ht="15">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" ht="15">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" ht="15">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" ht="15">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" ht="15">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="15">
-      <c r="A33" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -724,9 +566,7 @@
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -745,9 +585,7 @@
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
